--- a/docs/Очистка - описание/Входа-выхода.xlsx
+++ b/docs/Очистка - описание/Входа-выхода.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWaterUSB\Docs\Очистка - описание\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GardenCleanWaterBundle\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8C257-33D5-472D-A535-E027DD26222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E3BF3-9A60-469F-AB68-AC9C877B9AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>PA0</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>3 = запустить мешалку,  0 = остановить мешалку</t>
+  </si>
+  <si>
+    <t>1= 3,3В; 0= 0В</t>
+  </si>
+  <si>
+    <t>Пояснение</t>
+  </si>
+  <si>
+    <t>1= замкнут на 0В; 0= разомкнут</t>
   </si>
 </sst>
 </file>
@@ -606,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -638,9 +647,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -686,9 +692,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,7 +701,37 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,9 +1028,10 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1010,14 +1044,17 @@
       <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1030,14 +1067,17 @@
       <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1050,14 +1090,17 @@
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1070,14 +1113,17 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1090,14 +1136,17 @@
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1110,14 +1159,17 @@
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1130,14 +1182,17 @@
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1150,14 +1205,17 @@
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1170,14 +1228,17 @@
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1190,35 +1251,41 @@
       <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="G10" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="G11" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1230,15 +1297,18 @@
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="G12" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1250,15 +1320,18 @@
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="G13" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1270,15 +1343,18 @@
       <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="G14" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1290,15 +1366,18 @@
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="G15" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1310,15 +1389,18 @@
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="G16" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1330,15 +1412,18 @@
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="G17" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1350,15 +1435,18 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="G18" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1370,15 +1458,18 @@
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="G19" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1390,15 +1481,18 @@
       <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="G20" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1410,15 +1504,18 @@
       <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="G21" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1430,15 +1527,18 @@
       <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="G22" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1450,15 +1550,18 @@
       <c r="D23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="G23" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1470,91 +1573,106 @@
       <c r="D24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="G24" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="G25" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="36" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="G26" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="25" t="s">
+      <c r="C27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="G27" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="29" t="s">
+      <c r="C28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="28" t="s">
         <v>95</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
